--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cntf-Lifr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cntf-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Lifr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.02069761610641</v>
+        <v>0.5318900000000001</v>
       </c>
       <c r="H2">
-        <v>1.02069761610641</v>
+        <v>1.59567</v>
       </c>
       <c r="I2">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636632</v>
       </c>
       <c r="J2">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636631</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.9311463188608</v>
+        <v>37.78741566666667</v>
       </c>
       <c r="N2">
-        <v>36.9311463188608</v>
+        <v>113.362247</v>
       </c>
       <c r="O2">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="P2">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="Q2">
-        <v>37.69553300773824</v>
+        <v>20.09874851894334</v>
       </c>
       <c r="R2">
-        <v>37.69553300773824</v>
+        <v>180.88873667049</v>
       </c>
       <c r="S2">
-        <v>0.08993810732149075</v>
+        <v>0.03657523615105444</v>
       </c>
       <c r="T2">
-        <v>0.08993810732149075</v>
+        <v>0.03657523615105444</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.02069761610641</v>
+        <v>0.5318900000000001</v>
       </c>
       <c r="H3">
-        <v>1.02069761610641</v>
+        <v>1.59567</v>
       </c>
       <c r="I3">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636632</v>
       </c>
       <c r="J3">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636631</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.1686657667975</v>
+        <v>27.62253466666667</v>
       </c>
       <c r="N3">
-        <v>27.1686657667975</v>
+        <v>82.867604</v>
       </c>
       <c r="O3">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663402</v>
       </c>
       <c r="P3">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663403</v>
       </c>
       <c r="Q3">
-        <v>27.73099238096204</v>
+        <v>14.69214996385334</v>
       </c>
       <c r="R3">
-        <v>27.73099238096204</v>
+        <v>132.22934967468</v>
       </c>
       <c r="S3">
-        <v>0.06616362125396706</v>
+        <v>0.02673643356391889</v>
       </c>
       <c r="T3">
-        <v>0.06616362125396706</v>
+        <v>0.02673643356391889</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.02069761610641</v>
+        <v>0.5318900000000001</v>
       </c>
       <c r="H4">
-        <v>1.02069761610641</v>
+        <v>1.59567</v>
       </c>
       <c r="I4">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636632</v>
       </c>
       <c r="J4">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636631</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.679772234104179</v>
+        <v>9.205342333333334</v>
       </c>
       <c r="N4">
-        <v>8.679772234104179</v>
+        <v>27.616027</v>
       </c>
       <c r="O4">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000923</v>
       </c>
       <c r="P4">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000925</v>
       </c>
       <c r="Q4">
-        <v>8.859422827696745</v>
+        <v>4.896229533676668</v>
       </c>
       <c r="R4">
-        <v>8.859422827696745</v>
+        <v>44.06606580309001</v>
       </c>
       <c r="S4">
-        <v>0.02113777568605505</v>
+        <v>0.00891004488539201</v>
       </c>
       <c r="T4">
-        <v>0.02113777568605505</v>
+        <v>0.00891004488539201</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.02069761610641</v>
+        <v>0.5318900000000001</v>
       </c>
       <c r="H5">
-        <v>1.02069761610641</v>
+        <v>1.59567</v>
       </c>
       <c r="I5">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636632</v>
       </c>
       <c r="J5">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636631</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.2661705617588</v>
+        <v>17.41884833333333</v>
       </c>
       <c r="N5">
-        <v>17.2661705617588</v>
+        <v>52.256545</v>
       </c>
       <c r="O5">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334833</v>
       </c>
       <c r="P5">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334834</v>
       </c>
       <c r="Q5">
-        <v>17.62353913167388</v>
+        <v>9.264911240016668</v>
       </c>
       <c r="R5">
-        <v>17.62353913167388</v>
+        <v>83.38420116015001</v>
       </c>
       <c r="S5">
-        <v>0.04204815868987975</v>
+        <v>0.01686007047666586</v>
       </c>
       <c r="T5">
-        <v>0.04204815868987975</v>
+        <v>0.01686007047666586</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.02069761610641</v>
+        <v>0.5318900000000001</v>
       </c>
       <c r="H6">
-        <v>1.02069761610641</v>
+        <v>1.59567</v>
       </c>
       <c r="I6">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636632</v>
       </c>
       <c r="J6">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636631</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.62957182182645</v>
+        <v>4.870543333333333</v>
       </c>
       <c r="N6">
-        <v>4.62957182182645</v>
+        <v>14.61163</v>
       </c>
       <c r="O6">
-        <v>0.04889945440941106</v>
+        <v>0.05026117536877379</v>
       </c>
       <c r="P6">
-        <v>0.04889945440941106</v>
+        <v>0.0502611753687738</v>
       </c>
       <c r="Q6">
-        <v>4.725392922131667</v>
+        <v>2.590593293566667</v>
       </c>
       <c r="R6">
-        <v>4.725392922131667</v>
+        <v>23.3153396421</v>
       </c>
       <c r="S6">
-        <v>0.01127435698228878</v>
+        <v>0.004714301559335107</v>
       </c>
       <c r="T6">
-        <v>0.01127435698228878</v>
+        <v>0.004714301559335107</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.51921970437093</v>
+        <v>1.130951</v>
       </c>
       <c r="H7">
-        <v>1.51921970437093</v>
+        <v>3.392853</v>
       </c>
       <c r="I7">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="J7">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.9311463188608</v>
+        <v>37.78741566666667</v>
       </c>
       <c r="N7">
-        <v>36.9311463188608</v>
+        <v>113.362247</v>
       </c>
       <c r="O7">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="P7">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="Q7">
-        <v>56.10652519261926</v>
+        <v>42.73571553563234</v>
       </c>
       <c r="R7">
-        <v>56.10652519261926</v>
+        <v>384.621439820691</v>
       </c>
       <c r="S7">
-        <v>0.1338650572515803</v>
+        <v>0.07776946342339801</v>
       </c>
       <c r="T7">
-        <v>0.1338650572515803</v>
+        <v>0.07776946342339802</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.51921970437093</v>
+        <v>1.130951</v>
       </c>
       <c r="H8">
-        <v>1.51921970437093</v>
+        <v>3.392853</v>
       </c>
       <c r="I8">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="J8">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.1686657667975</v>
+        <v>27.62253466666667</v>
       </c>
       <c r="N8">
-        <v>27.1686657667975</v>
+        <v>82.867604</v>
       </c>
       <c r="O8">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663402</v>
       </c>
       <c r="P8">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663403</v>
       </c>
       <c r="Q8">
-        <v>41.2751723743867</v>
+        <v>31.23973320380134</v>
       </c>
       <c r="R8">
-        <v>41.2751723743867</v>
+        <v>281.157598834212</v>
       </c>
       <c r="S8">
-        <v>0.09847880070984986</v>
+        <v>0.05684934154721395</v>
       </c>
       <c r="T8">
-        <v>0.09847880070984986</v>
+        <v>0.05684934154721397</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.51921970437093</v>
+        <v>1.130951</v>
       </c>
       <c r="H9">
-        <v>1.51921970437093</v>
+        <v>3.392853</v>
       </c>
       <c r="I9">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="J9">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.679772234104179</v>
+        <v>9.205342333333334</v>
       </c>
       <c r="N9">
-        <v>8.679772234104179</v>
+        <v>27.616027</v>
       </c>
       <c r="O9">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000923</v>
       </c>
       <c r="P9">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000925</v>
       </c>
       <c r="Q9">
-        <v>13.18648100750276</v>
+        <v>10.41079111722567</v>
       </c>
       <c r="R9">
-        <v>13.18648100750276</v>
+        <v>93.69712005503101</v>
       </c>
       <c r="S9">
-        <v>0.03146174226537993</v>
+        <v>0.01894531608636932</v>
       </c>
       <c r="T9">
-        <v>0.03146174226537993</v>
+        <v>0.01894531608636932</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.51921970437093</v>
+        <v>1.130951</v>
       </c>
       <c r="H10">
-        <v>1.51921970437093</v>
+        <v>3.392853</v>
       </c>
       <c r="I10">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="J10">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.2661705617588</v>
+        <v>17.41884833333333</v>
       </c>
       <c r="N10">
-        <v>17.2661705617588</v>
+        <v>52.256545</v>
       </c>
       <c r="O10">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334833</v>
       </c>
       <c r="P10">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334834</v>
       </c>
       <c r="Q10">
-        <v>26.23110653645325</v>
+        <v>19.69986394143167</v>
       </c>
       <c r="R10">
-        <v>26.23110653645325</v>
+        <v>177.298775472885</v>
       </c>
       <c r="S10">
-        <v>0.06258503028336786</v>
+        <v>0.03584935525325863</v>
       </c>
       <c r="T10">
-        <v>0.06258503028336786</v>
+        <v>0.03584935525325864</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.51921970437093</v>
+        <v>1.130951</v>
       </c>
       <c r="H11">
-        <v>1.51921970437093</v>
+        <v>3.392853</v>
       </c>
       <c r="I11">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="J11">
-        <v>0.3431715311523711</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.62957182182645</v>
+        <v>4.870543333333333</v>
       </c>
       <c r="N11">
-        <v>4.62957182182645</v>
+        <v>14.61163</v>
       </c>
       <c r="O11">
-        <v>0.04889945440941106</v>
+        <v>0.05026117536877379</v>
       </c>
       <c r="P11">
-        <v>0.04889945440941106</v>
+        <v>0.0502611753687738</v>
       </c>
       <c r="Q11">
-        <v>7.033336734519167</v>
+        <v>5.508345853376666</v>
       </c>
       <c r="R11">
-        <v>7.033336734519167</v>
+        <v>49.57511268039</v>
       </c>
       <c r="S11">
-        <v>0.01678090064219316</v>
+        <v>0.01002395995944951</v>
       </c>
       <c r="T11">
-        <v>0.01678090064219316</v>
+        <v>0.01002395995944951</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.20044886189076</v>
+        <v>1.543123333333333</v>
       </c>
       <c r="H12">
-        <v>1.20044886189076</v>
+        <v>4.62937</v>
       </c>
       <c r="I12">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="J12">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>36.9311463188608</v>
+        <v>37.78741566666667</v>
       </c>
       <c r="N12">
-        <v>36.9311463188608</v>
+        <v>113.362247</v>
       </c>
       <c r="O12">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="P12">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="Q12">
-        <v>44.33395256679758</v>
+        <v>58.31064282159888</v>
       </c>
       <c r="R12">
-        <v>44.33395256679758</v>
+        <v>524.79578539439</v>
       </c>
       <c r="S12">
-        <v>0.1057767715638878</v>
+        <v>0.1061123546727123</v>
       </c>
       <c r="T12">
-        <v>0.1057767715638878</v>
+        <v>0.1061123546727123</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.20044886189076</v>
+        <v>1.543123333333333</v>
       </c>
       <c r="H13">
-        <v>1.20044886189076</v>
+        <v>4.62937</v>
       </c>
       <c r="I13">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="J13">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.1686657667975</v>
+        <v>27.62253466666667</v>
       </c>
       <c r="N13">
-        <v>27.1686657667975</v>
+        <v>82.867604</v>
       </c>
       <c r="O13">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663402</v>
       </c>
       <c r="P13">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663403</v>
       </c>
       <c r="Q13">
-        <v>32.61459389884251</v>
+        <v>42.62497776994222</v>
       </c>
       <c r="R13">
-        <v>32.61459389884251</v>
+        <v>383.62479992948</v>
       </c>
       <c r="S13">
-        <v>0.07781544953134847</v>
+        <v>0.07756794540713254</v>
       </c>
       <c r="T13">
-        <v>0.07781544953134847</v>
+        <v>0.07756794540713255</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.20044886189076</v>
+        <v>1.543123333333333</v>
       </c>
       <c r="H14">
-        <v>1.20044886189076</v>
+        <v>4.62937</v>
       </c>
       <c r="I14">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="J14">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.679772234104179</v>
+        <v>9.205342333333334</v>
       </c>
       <c r="N14">
-        <v>8.679772234104179</v>
+        <v>27.616027</v>
       </c>
       <c r="O14">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000923</v>
       </c>
       <c r="P14">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000925</v>
       </c>
       <c r="Q14">
-        <v>10.41962269990138</v>
+        <v>14.20497854588778</v>
       </c>
       <c r="R14">
-        <v>10.41962269990138</v>
+        <v>127.84480691299</v>
       </c>
       <c r="S14">
-        <v>0.02486027043153355</v>
+        <v>0.02584989032261507</v>
       </c>
       <c r="T14">
-        <v>0.02486027043153355</v>
+        <v>0.02584989032261508</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.20044886189076</v>
+        <v>1.543123333333333</v>
       </c>
       <c r="H15">
-        <v>1.20044886189076</v>
+        <v>4.62937</v>
       </c>
       <c r="I15">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="J15">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.2661705617588</v>
+        <v>17.41884833333333</v>
       </c>
       <c r="N15">
-        <v>17.2661705617588</v>
+        <v>52.256545</v>
       </c>
       <c r="O15">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334833</v>
       </c>
       <c r="P15">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334834</v>
       </c>
       <c r="Q15">
-        <v>20.72715480007509</v>
+        <v>26.87943130296111</v>
       </c>
       <c r="R15">
-        <v>20.72715480007509</v>
+        <v>241.91488172665</v>
       </c>
       <c r="S15">
-        <v>0.04945310290467643</v>
+        <v>0.0489145653315301</v>
       </c>
       <c r="T15">
-        <v>0.04945310290467643</v>
+        <v>0.0489145653315301</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.20044886189076</v>
+        <v>1.543123333333333</v>
       </c>
       <c r="H16">
-        <v>1.20044886189076</v>
+        <v>4.62937</v>
       </c>
       <c r="I16">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="J16">
-        <v>0.2711654363222964</v>
+        <v>0.272121923450209</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.62957182182645</v>
+        <v>4.870543333333333</v>
       </c>
       <c r="N16">
-        <v>4.62957182182645</v>
+        <v>14.61163</v>
       </c>
       <c r="O16">
-        <v>0.04889945440941106</v>
+        <v>0.05026117536877379</v>
       </c>
       <c r="P16">
-        <v>0.04889945440941106</v>
+        <v>0.0502611753687738</v>
       </c>
       <c r="Q16">
-        <v>5.557564224553095</v>
+        <v>7.515849063677776</v>
       </c>
       <c r="R16">
-        <v>5.557564224553095</v>
+        <v>67.64264157309999</v>
       </c>
       <c r="S16">
-        <v>0.01325984189085019</v>
+        <v>0.01367716771621899</v>
       </c>
       <c r="T16">
-        <v>0.01325984189085019</v>
+        <v>0.013677167716219</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.686631882621105</v>
+        <v>1.632815666666667</v>
       </c>
       <c r="H17">
-        <v>0.686631882621105</v>
+        <v>4.898447</v>
       </c>
       <c r="I17">
-        <v>0.1551010125916509</v>
+        <v>0.2879387086275035</v>
       </c>
       <c r="J17">
-        <v>0.1551010125916509</v>
+        <v>0.2879387086275035</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>36.9311463188608</v>
+        <v>37.78741566666667</v>
       </c>
       <c r="N17">
-        <v>36.9311463188608</v>
+        <v>113.362247</v>
       </c>
       <c r="O17">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="P17">
-        <v>0.390082058386548</v>
+        <v>0.3899441593213934</v>
       </c>
       <c r="Q17">
-        <v>25.35810252427488</v>
+        <v>61.69988430337878</v>
       </c>
       <c r="R17">
-        <v>25.35810252427488</v>
+        <v>555.298958730409</v>
       </c>
       <c r="S17">
-        <v>0.06050212224958909</v>
+        <v>0.1122800176718395</v>
       </c>
       <c r="T17">
-        <v>0.06050212224958909</v>
+        <v>0.1122800176718395</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.686631882621105</v>
+        <v>1.632815666666667</v>
       </c>
       <c r="H18">
-        <v>0.686631882621105</v>
+        <v>4.898447</v>
       </c>
       <c r="I18">
-        <v>0.1551010125916509</v>
+        <v>0.2879387086275035</v>
       </c>
       <c r="J18">
-        <v>0.1551010125916509</v>
+        <v>0.2879387086275035</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>27.1686657667975</v>
+        <v>27.62253466666667</v>
       </c>
       <c r="N18">
-        <v>27.1686657667975</v>
+        <v>82.867604</v>
       </c>
       <c r="O18">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663402</v>
       </c>
       <c r="P18">
-        <v>0.286966696739551</v>
+        <v>0.2850484974663403</v>
       </c>
       <c r="Q18">
-        <v>18.65487212375973</v>
+        <v>45.10250735677644</v>
       </c>
       <c r="R18">
-        <v>18.65487212375973</v>
+        <v>405.922566210988</v>
       </c>
       <c r="S18">
-        <v>0.04450882524438557</v>
+        <v>0.08207649625666821</v>
       </c>
       <c r="T18">
-        <v>0.04450882524438557</v>
+        <v>0.08207649625666823</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.686631882621105</v>
+        <v>1.632815666666667</v>
       </c>
       <c r="H19">
-        <v>0.686631882621105</v>
+        <v>4.898447</v>
       </c>
       <c r="I19">
-        <v>0.1551010125916509</v>
+        <v>0.2879387086275035</v>
       </c>
       <c r="J19">
-        <v>0.1551010125916509</v>
+        <v>0.2879387086275035</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.679772234104179</v>
+        <v>9.205342333333334</v>
       </c>
       <c r="N19">
-        <v>8.679772234104179</v>
+        <v>27.616027</v>
       </c>
       <c r="O19">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000923</v>
       </c>
       <c r="P19">
-        <v>0.09167934810830985</v>
+        <v>0.09499378071000925</v>
       </c>
       <c r="Q19">
-        <v>5.959808349825347</v>
+        <v>15.03062717889656</v>
       </c>
       <c r="R19">
-        <v>5.959808349825347</v>
+        <v>135.275644610069</v>
       </c>
       <c r="S19">
-        <v>0.01421955972534131</v>
+        <v>0.02735238654528431</v>
       </c>
       <c r="T19">
-        <v>0.01421955972534131</v>
+        <v>0.02735238654528432</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.686631882621105</v>
+        <v>1.632815666666667</v>
       </c>
       <c r="H20">
-        <v>0.686631882621105</v>
+        <v>4.898447</v>
       </c>
       <c r="I20">
-        <v>0.1551010125916509</v>
+        <v>0.2879387086275035</v>
       </c>
       <c r="J20">
-        <v>0.1551010125916509</v>
+        <v>0.2879387086275035</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.2661705617588</v>
+        <v>17.41884833333333</v>
       </c>
       <c r="N20">
-        <v>17.2661705617588</v>
+        <v>52.256545</v>
       </c>
       <c r="O20">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334833</v>
       </c>
       <c r="P20">
-        <v>0.1823724423561801</v>
+        <v>0.1797523871334834</v>
       </c>
       <c r="Q20">
-        <v>11.85550319847755</v>
+        <v>28.44176845395722</v>
       </c>
       <c r="R20">
-        <v>11.85550319847755</v>
+        <v>255.975916085615</v>
       </c>
       <c r="S20">
-        <v>0.02828615047825601</v>
+        <v>0.05175767022392628</v>
       </c>
       <c r="T20">
-        <v>0.02828615047825601</v>
+        <v>0.05175767022392629</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.632815666666667</v>
+      </c>
+      <c r="H21">
+        <v>4.898447</v>
+      </c>
+      <c r="I21">
+        <v>0.2879387086275035</v>
+      </c>
+      <c r="J21">
+        <v>0.2879387086275035</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.870543333333333</v>
+      </c>
+      <c r="N21">
+        <v>14.61163</v>
+      </c>
+      <c r="O21">
+        <v>0.05026117536877379</v>
+      </c>
+      <c r="P21">
+        <v>0.0502611753687738</v>
+      </c>
+      <c r="Q21">
+        <v>7.952699459845555</v>
+      </c>
+      <c r="R21">
+        <v>71.57429513861</v>
+      </c>
+      <c r="S21">
+        <v>0.01447213792978522</v>
+      </c>
+      <c r="T21">
+        <v>0.01447213792978522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8319256666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.495777</v>
+      </c>
+      <c r="I22">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="J22">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>37.78741566666667</v>
+      </c>
+      <c r="N22">
+        <v>113.362247</v>
+      </c>
+      <c r="O22">
+        <v>0.3899441593213934</v>
+      </c>
+      <c r="P22">
+        <v>0.3899441593213934</v>
+      </c>
+      <c r="Q22">
+        <v>31.43632097010211</v>
+      </c>
+      <c r="R22">
+        <v>282.926888730919</v>
+      </c>
+      <c r="S22">
+        <v>0.05720708740238908</v>
+      </c>
+      <c r="T22">
+        <v>0.05720708740238909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8319256666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.495777</v>
+      </c>
+      <c r="I23">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="J23">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>27.62253466666667</v>
+      </c>
+      <c r="N23">
+        <v>82.867604</v>
+      </c>
+      <c r="O23">
+        <v>0.2850484974663402</v>
+      </c>
+      <c r="P23">
+        <v>0.2850484974663403</v>
+      </c>
+      <c r="Q23">
+        <v>22.97989556758978</v>
+      </c>
+      <c r="R23">
+        <v>206.819060108308</v>
+      </c>
+      <c r="S23">
+        <v>0.0418182806914066</v>
+      </c>
+      <c r="T23">
+        <v>0.04181828069140662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8319256666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.495777</v>
+      </c>
+      <c r="I24">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="J24">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>9.205342333333334</v>
+      </c>
+      <c r="N24">
+        <v>27.616027</v>
+      </c>
+      <c r="O24">
+        <v>0.09499378071000923</v>
+      </c>
+      <c r="P24">
+        <v>0.09499378071000925</v>
+      </c>
+      <c r="Q24">
+        <v>7.658160557553223</v>
+      </c>
+      <c r="R24">
+        <v>68.92344501797901</v>
+      </c>
+      <c r="S24">
+        <v>0.01393614287034851</v>
+      </c>
+      <c r="T24">
+        <v>0.01393614287034851</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.686631882621105</v>
-      </c>
-      <c r="H21">
-        <v>0.686631882621105</v>
-      </c>
-      <c r="I21">
-        <v>0.1551010125916509</v>
-      </c>
-      <c r="J21">
-        <v>0.1551010125916509</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>4.62957182182645</v>
-      </c>
-      <c r="N21">
-        <v>4.62957182182645</v>
-      </c>
-      <c r="O21">
-        <v>0.04889945440941106</v>
-      </c>
-      <c r="P21">
-        <v>0.04889945440941106</v>
-      </c>
-      <c r="Q21">
-        <v>3.178811615750314</v>
-      </c>
-      <c r="R21">
-        <v>3.178811615750314</v>
-      </c>
-      <c r="S21">
-        <v>0.007584354894078924</v>
-      </c>
-      <c r="T21">
-        <v>0.007584354894078924</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8319256666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.495777</v>
+      </c>
+      <c r="I25">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="J25">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>17.41884833333333</v>
+      </c>
+      <c r="N25">
+        <v>52.256545</v>
+      </c>
+      <c r="O25">
+        <v>0.1797523871334833</v>
+      </c>
+      <c r="P25">
+        <v>0.1797523871334834</v>
+      </c>
+      <c r="Q25">
+        <v>14.49118701227389</v>
+      </c>
+      <c r="R25">
+        <v>130.420683110465</v>
+      </c>
+      <c r="S25">
+        <v>0.02637072584810248</v>
+      </c>
+      <c r="T25">
+        <v>0.02637072584810249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.8319256666666667</v>
+      </c>
+      <c r="H26">
+        <v>2.495777</v>
+      </c>
+      <c r="I26">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="J26">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.870543333333333</v>
+      </c>
+      <c r="N26">
+        <v>14.61163</v>
+      </c>
+      <c r="O26">
+        <v>0.05026117536877379</v>
+      </c>
+      <c r="P26">
+        <v>0.0502611753687738</v>
+      </c>
+      <c r="Q26">
+        <v>4.051930009612222</v>
+      </c>
+      <c r="R26">
+        <v>36.46737008651</v>
+      </c>
+      <c r="S26">
+        <v>0.007373608203984968</v>
+      </c>
+      <c r="T26">
+        <v>0.007373608203984969</v>
       </c>
     </row>
   </sheetData>
